--- a/02_text_to_keyword/surat_ctr_format_clean.xlsx
+++ b/02_text_to_keyword/surat_ctr_format_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Documents/GitHub/data_heroes/02_text_to_keyword/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E2036B-B59F-D44E-829D-CE8BA627EFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F52F591-FDC9-3C49-8E4F-3CCEB224122F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4727,12 +4727,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4762,11 +4768,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5072,15 +5079,15 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
